--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PL15"/>
+  <dimension ref="A1:PO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,6 +2567,21 @@
       <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>2025-02</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>2025-05</t>
         </is>
       </c>
     </row>
@@ -3703,20 +3718,47 @@
       <c r="OX2" t="n">
         <v>4.38</v>
       </c>
-      <c r="OY2" t="inlineStr"/>
-      <c r="OZ2" t="inlineStr"/>
-      <c r="PA2" t="inlineStr"/>
-      <c r="PB2" t="inlineStr"/>
-      <c r="PC2" t="inlineStr"/>
-      <c r="PD2" t="inlineStr"/>
-      <c r="PE2" t="inlineStr"/>
-      <c r="PF2" t="inlineStr"/>
-      <c r="PG2" t="inlineStr"/>
-      <c r="PH2" t="inlineStr"/>
-      <c r="PI2" t="inlineStr"/>
-      <c r="PJ2" t="inlineStr"/>
+      <c r="OY2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>4.38</v>
+      </c>
       <c r="PK2" t="inlineStr"/>
       <c r="PL2" t="inlineStr"/>
+      <c r="PM2" t="inlineStr"/>
+      <c r="PN2" t="inlineStr"/>
+      <c r="PO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4887,8 +4929,21 @@
       <c r="PJ3" t="n">
         <v>274.79</v>
       </c>
-      <c r="PK3" t="inlineStr"/>
-      <c r="PL3" t="inlineStr"/>
+      <c r="PK3" t="n">
+        <v>289.06</v>
+      </c>
+      <c r="PL3" t="n">
+        <v>272.23</v>
+      </c>
+      <c r="PM3" t="n">
+        <v>312.59</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>309.02</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>316.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6023,20 +6078,47 @@
       <c r="OX4" t="n">
         <v>3.54</v>
       </c>
-      <c r="OY4" t="inlineStr"/>
-      <c r="OZ4" t="inlineStr"/>
-      <c r="PA4" t="inlineStr"/>
-      <c r="PB4" t="inlineStr"/>
-      <c r="PC4" t="inlineStr"/>
-      <c r="PD4" t="inlineStr"/>
-      <c r="PE4" t="inlineStr"/>
-      <c r="PF4" t="inlineStr"/>
-      <c r="PG4" t="inlineStr"/>
-      <c r="PH4" t="inlineStr"/>
-      <c r="PI4" t="inlineStr"/>
-      <c r="PJ4" t="inlineStr"/>
+      <c r="OY4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="OZ4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="PA4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="PB4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="PC4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="PD4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="PE4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="PF4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="PG4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="PH4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="PI4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="PJ4" t="n">
+        <v>3.56</v>
+      </c>
       <c r="PK4" t="inlineStr"/>
       <c r="PL4" t="inlineStr"/>
+      <c r="PM4" t="inlineStr"/>
+      <c r="PN4" t="inlineStr"/>
+      <c r="PO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6775,6 +6857,9 @@
       <c r="PJ5" t="inlineStr"/>
       <c r="PK5" t="inlineStr"/>
       <c r="PL5" t="inlineStr"/>
+      <c r="PM5" t="inlineStr"/>
+      <c r="PN5" t="inlineStr"/>
+      <c r="PO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7513,6 +7598,9 @@
       <c r="PJ6" t="inlineStr"/>
       <c r="PK6" t="inlineStr"/>
       <c r="PL6" t="inlineStr"/>
+      <c r="PM6" t="inlineStr"/>
+      <c r="PN6" t="inlineStr"/>
+      <c r="PO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8251,6 +8339,9 @@
       <c r="PJ7" t="inlineStr"/>
       <c r="PK7" t="inlineStr"/>
       <c r="PL7" t="inlineStr"/>
+      <c r="PM7" t="inlineStr"/>
+      <c r="PN7" t="inlineStr"/>
+      <c r="PO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9424,7 +9515,16 @@
       <c r="PK8" t="n">
         <v>61.17</v>
       </c>
-      <c r="PL8" t="inlineStr"/>
+      <c r="PL8" t="n">
+        <v>56.68</v>
+      </c>
+      <c r="PM8" t="n">
+        <v>61.61</v>
+      </c>
+      <c r="PN8" t="n">
+        <v>58.57</v>
+      </c>
+      <c r="PO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10598,7 +10698,16 @@
       <c r="PK9" t="n">
         <v>5.94</v>
       </c>
-      <c r="PL9" t="inlineStr"/>
+      <c r="PL9" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="PM9" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="PN9" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="PO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11772,7 +11881,16 @@
       <c r="PK10" t="n">
         <v>0.15</v>
       </c>
-      <c r="PL10" t="inlineStr"/>
+      <c r="PL10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="PM10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="PN10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="PO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12946,7 +13064,16 @@
       <c r="PK11" t="n">
         <v>0.42</v>
       </c>
-      <c r="PL11" t="inlineStr"/>
+      <c r="PL11" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="PM11" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="PN11" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="PO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13519,6 +13646,9 @@
       <c r="PJ12" t="inlineStr"/>
       <c r="PK12" t="inlineStr"/>
       <c r="PL12" t="inlineStr"/>
+      <c r="PM12" t="inlineStr"/>
+      <c r="PN12" t="inlineStr"/>
+      <c r="PO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14644,7 +14774,16 @@
       <c r="PK13" t="n">
         <v>25.73</v>
       </c>
-      <c r="PL13" t="inlineStr"/>
+      <c r="PL13" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="PM13" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="PN13" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="PO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15818,7 +15957,16 @@
       <c r="PK14" t="n">
         <v>3.24</v>
       </c>
-      <c r="PL14" t="inlineStr"/>
+      <c r="PL14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="PM14" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="PN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="PO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16992,7 +17140,16 @@
       <c r="PK15" t="n">
         <v>20.47</v>
       </c>
-      <c r="PL15" t="inlineStr"/>
+      <c r="PL15" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="PM15" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="PN15" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="PO15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
